--- a/XZDHospital2BMS/XZDHospital2BMS/Excel/Export/Inventory[190101-200101].xlsx
+++ b/XZDHospital2BMS/XZDHospital2BMS/Excel/Export/Inventory[190101-200101].xlsx
@@ -723,7 +723,7 @@
         <v>77</v>
       </c>
       <c r="J3" s="1">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25">
@@ -755,7 +755,7 @@
         <v>200</v>
       </c>
       <c r="J4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25">
@@ -787,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25">
@@ -819,7 +819,7 @@
         <v>200</v>
       </c>
       <c r="J6" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25">
@@ -851,7 +851,7 @@
         <v>150</v>
       </c>
       <c r="J7" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25">
@@ -883,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25">
@@ -915,7 +915,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25">
@@ -947,7 +947,7 @@
         <v>25</v>
       </c>
       <c r="J10" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25">
@@ -979,7 +979,7 @@
         <v>200</v>
       </c>
       <c r="J11" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25">
@@ -1043,7 +1043,7 @@
         <v>100</v>
       </c>
       <c r="J13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25">
@@ -1075,7 +1075,7 @@
         <v>200</v>
       </c>
       <c r="J14" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25">
@@ -1107,7 +1107,7 @@
         <v>30</v>
       </c>
       <c r="J15" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/XZDHospital2BMS/XZDHospital2BMS/Excel/Export/Inventory[190101-200101].xlsx
+++ b/XZDHospital2BMS/XZDHospital2BMS/Excel/Export/Inventory[190101-200101].xlsx
@@ -1008,7 +1008,7 @@
         <v>0.26</v>
       </c>
       <c r="I12" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J12" s="1">
         <v>150</v>
@@ -1043,7 +1043,7 @@
         <v>100</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25">
